--- a/1b_excel_intro/excel_lab.xlsx
+++ b/1b_excel_intro/excel_lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/Teaching/workshops/data_science_series/lab_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/Workshops &amp; Conferences/Data-Science-Workshop/1b_excel_intro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5B5A63E3-7199-EA4E-A95F-25BE3909ED15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB651543-0E63-0C45-9B15-F48CFEE773A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13700" yWindow="1020" windowWidth="28480" windowHeight="18180"/>
+    <workbookView xWindow="19620" yWindow="6280" windowWidth="28480" windowHeight="18180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab Assignment" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="116">
   <si>
     <t>STATE</t>
   </si>
@@ -383,12 +383,18 @@
   <si>
     <t>4. Create a pivot table to show the average population in each state.</t>
   </si>
+  <si>
+    <t>Pivot Tables</t>
+  </si>
+  <si>
+    <t>EMAIL ME YOUR ANSWERS WITH THE SUBJECT LINE "Data Science Workshop Homework"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -526,6 +532,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -881,7 +895,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -891,6 +905,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -950,7 +968,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44067.701916087964" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="435">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44067.701916087964" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="435" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR436" sheet="cd_data"/>
   </cacheSource>
@@ -2016,7 +2034,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="435">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="435">
   <r>
     <x v="0"/>
     <n v="9"/>
@@ -22031,7 +22049,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C54" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="44">
     <pivotField axis="axisRow" showAll="0">
@@ -23488,11 +23506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23535,6 +23553,11 @@
         <v>106</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>107</v>
@@ -23579,11 +23602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR436"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q388" sqref="Q388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -80648,13 +80671,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR436"/>
+  <autoFilter ref="A1:AR436" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AR53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -87695,11 +87718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -87815,13 +87838,18 @@
         <v>113</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/1b_excel_intro/excel_lab.xlsx
+++ b/1b_excel_intro/excel_lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/Workshops &amp; Conferences/Data-Science-Workshop/1b_excel_intro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB651543-0E63-0C45-9B15-F48CFEE773A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CF3FC8-507B-7748-9A41-366042A2D556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19620" yWindow="6280" windowWidth="28480" windowHeight="18180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab Assignment" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="115">
   <si>
     <t>STATE</t>
   </si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>Pivot Tables</t>
-  </si>
-  <si>
-    <t>EMAIL ME YOUR ANSWERS WITH THE SUBJECT LINE "Data Science Workshop Homework"</t>
   </si>
 </sst>
 </file>
@@ -87722,7 +87719,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -87839,9 +87836,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>115</v>
-      </c>
+      <c r="A18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1b_excel_intro/excel_lab.xlsx
+++ b/1b_excel_intro/excel_lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/Workshops &amp; Conferences/Data-Science-Workshop/1b_excel_intro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CF3FC8-507B-7748-9A41-366042A2D556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FC05A7-59C1-8648-AC73-E79266A11644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="460" windowWidth="20680" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab Assignment" sheetId="2" r:id="rId1"/>
@@ -23504,10 +23504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23550,46 +23550,46 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>110</v>
+      <c r="A13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>113</v>
       </c>
     </row>
@@ -87718,7 +87718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
